--- a/biology/Histoire de la zoologie et de la botanique/François-Joseph_Lestiboudois/François-Joseph_Lestiboudois.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/François-Joseph_Lestiboudois/François-Joseph_Lestiboudois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Joseph_Lestiboudois</t>
+          <t>François-Joseph_Lestiboudois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François-Joseph Lestiboudois est un médecin et un botaniste français, né à Lille en 1759 et mort dans la même ville le 26 juillet 1815[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François-Joseph Lestiboudois est un médecin et un botaniste français, né à Lille en 1759 et mort dans la même ville le 26 juillet 1815.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Joseph_Lestiboudois</t>
+          <t>François-Joseph_Lestiboudois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Jean-Baptiste Lestiboudois (1715-1804), professeur de botanique à la faculté des sciences de Lille et le père de Gaspard Thémistocle Lestiboudois (1797-1876), également botaniste. Il est médecin et professeur de botanique à Lille. Il publie le Botanographie Belgique en 1781 réédité en 1796, puis plus tard à nouveau par son fils. La première partie de l'ouvrage décrit les différents systèmes botaniques et donne un dictionnaire, la deuxième offre vingt-trois tableaux synoptiques ainsi que les usages et la description des plantes cultivées du nord de la France.
 </t>
